--- a/excel_prueba.xlsx
+++ b/excel_prueba.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\prog\streamlit-apps\certseg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\prog\streamlit-apps\certseg-github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F4BB99-26D4-48B5-84B9-6064FEC96DE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD67398-3B8B-467E-8DAC-280B901C997D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="-11655" windowWidth="20760" windowHeight="11790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>CCDM-2</t>
   </si>
@@ -52,18 +52,6 @@
     <t>CORREO</t>
   </si>
   <si>
-    <t>iveferreirach@unal.edu.co</t>
-  </si>
-  <si>
-    <t>iferreira@grupodot.com</t>
-  </si>
-  <si>
-    <t>ivaneduardoferreira@gmail.com</t>
-  </si>
-  <si>
-    <t>ivaneduardoferreira@hotmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jane Jan Doe </t>
   </si>
   <si>
@@ -72,12 +60,15 @@
   <si>
     <t>Iván E. Ferreira</t>
   </si>
+  <si>
+    <t>js4131023@gmail.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -125,6 +116,12 @@
       <u/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -200,9 +197,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -425,7 +422,7 @@
   <dimension ref="A1:J156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -460,13 +457,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>10000000001</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>9</v>
+      <c r="D2" s="17" t="s">
+        <v>12</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
@@ -486,7 +483,7 @@
         <v>10000000002</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -500,15 +497,15 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>10000000003</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="E4" s="13"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -519,13 +516,13 @@
       <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>14</v>
+      <c r="B5" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C5">
         <v>10000000004</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="8"/>
@@ -563,7 +560,7 @@
       <c r="A8" s="11"/>
       <c r="B8" s="8"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="17"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -1401,13 +1398,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:Y998" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{72F64CED-43AE-4DE2-9816-31A4D742658A}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{B677F2A6-61F4-4835-BF49-A772D1BCAB93}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{E4E03FE4-D314-4470-868E-322F24808707}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{147A93D3-E51F-40EB-B50A-8B0975355A6A}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>